--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/NORTH_DAKOTA_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/NORTH_DAKOTA_2010.xlsx
@@ -360,45 +360,41 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OJINAGA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Ojinaga</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -407,37 +403,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Saltillo</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -446,54 +434,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
+          <t>Gustavo A. Madero</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Iztacalco</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -502,37 +478,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
+          <t>Tarimoro</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -541,37 +509,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Acapulco De Juarez</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
@@ -580,37 +540,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Lagos De Moreno</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
@@ -619,37 +571,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MICHOACAN DE OCAMPO</t>
+          <t>Michoacan De Ocampo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ZINAPECUARO</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Zinapecuaro</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
@@ -658,71 +602,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NUEVO LEON</t>
+          <t>Nuevo Leon</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GALEANA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Galeana</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.05</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>SABINAS HIDALGO</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Sabinas Hidalgo</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
@@ -731,37 +659,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0.15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OAXACA DE JUAREZ</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Oaxaca De Juarez</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
@@ -770,54 +690,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSI</t>
+          <t>San Luis Potosi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CIUDAD FERNANDEZ</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Ciudad Fernandez</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>TAMAZUNCHALE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Tamazunchale</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
@@ -826,37 +734,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Rosario</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
@@ -865,54 +765,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
+          <t>Ciudad Madero</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Tampico</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
@@ -921,21 +809,17 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0.15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -943,15 +827,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/NORTH_DAKOTA_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/NORTH_DAKOTA_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -566,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -597,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -628,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -641,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Sabinas Hidalgo</t>
@@ -654,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -685,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -716,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -729,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -760,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -791,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -804,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
